--- a/dcf_test_data.xlsx
+++ b/dcf_test_data.xlsx
@@ -45,7 +45,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -62,6 +62,21 @@
         <fgColor rgb="00DDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF2F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -75,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -107,6 +122,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -707,8 +739,8 @@
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1058,8 +1090,8 @@
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1351,8 +1383,8 @@
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/dcf_test_data.xlsx
+++ b/dcf_test_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ReadMe" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Projection" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DCF" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sensitivity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReadMe" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assumptions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DCF" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sensitivity" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +25,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,6 +43,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
     </font>
   </fonts>
   <fills count="7">
@@ -90,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -139,6 +143,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -504,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +539,13 @@
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Formulas are included; values recalculate in Excel/Google Sheets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="inlineStr">
+        <is>
+          <t>Modified variant: small input tweaks for test data.</t>
         </is>
       </c>
     </row>
@@ -691,7 +704,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="9">
@@ -701,7 +714,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
@@ -1366,6 +1379,16 @@
       <c r="B21">
         <f>IF(Assumptions!$B$8&gt;Assumptions!$B$9,"OK","ERROR")</f>
         <v/>
+      </c>
+      <c r="D21" s="27" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="E21" s="25" t="inlineStr">
+        <is>
+          <t>v2</t>
+        </is>
       </c>
     </row>
   </sheetData>
